--- a/biology/Médecine/Ordre_professionnel_de_la_physiothérapie_du_Québec/Ordre_professionnel_de_la_physiothérapie_du_Québec.xlsx
+++ b/biology/Médecine/Ordre_professionnel_de_la_physiothérapie_du_Québec/Ordre_professionnel_de_la_physiothérapie_du_Québec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ordre_professionnel_de_la_physioth%C3%A9rapie_du_Qu%C3%A9bec</t>
+          <t>Ordre_professionnel_de_la_physiothérapie_du_Québec</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Ordre professionnel de la physiothérapie du Québec (OPPQ) est l'ordre qui regroupe les physiothérapeutes et les thérapeutes en réadaptation physique au Québec[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Ordre professionnel de la physiothérapie du Québec (OPPQ) est l'ordre qui regroupe les physiothérapeutes et les thérapeutes en réadaptation physique au Québec,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ordre_professionnel_de_la_physioth%C3%A9rapie_du_Qu%C3%A9bec</t>
+          <t>Ordre_professionnel_de_la_physiothérapie_du_Québec</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Mission</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La mission de l'OPPQ est d'assurer la protection du public, la qualité des services professionnels fournis par les physiothérapeutes et les thérapeutes en réadaptation physique, et le développement de la profession[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La mission de l'OPPQ est d'assurer la protection du public, la qualité des services professionnels fournis par les physiothérapeutes et les thérapeutes en réadaptation physique, et le développement de la profession.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ordre_professionnel_de_la_physioth%C3%A9rapie_du_Qu%C3%A9bec</t>
+          <t>Ordre_professionnel_de_la_physiothérapie_du_Québec</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Conseil d'administration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le conseil d'administration est composé de vingt-quatre administrateurs, dont le président de l'Ordre Dennis Pelletier[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le conseil d'administration est composé de vingt-quatre administrateurs, dont le président de l'Ordre Dennis Pelletier.
 </t>
         </is>
       </c>
